--- a/data/trans_camb/P16A10-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.5960995408334814</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7537893502467203</v>
+        <v>0.7537893502467224</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.143169045379528</v>
@@ -655,7 +655,7 @@
         <v>1.151343423843281</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.1481407976161177</v>
+        <v>0.148140797616117</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.086870260927186</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.904423047706186</v>
+        <v>-3.362968065409894</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.33052238803082</v>
+        <v>-3.862299339334251</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.83499392060741</v>
+        <v>-2.542382257633918</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.260406879649165</v>
+        <v>-1.758028518244305</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.492769641236358</v>
+        <v>-2.109438841253478</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.845532452016907</v>
+        <v>-2.894181157953339</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.551819965997902</v>
+        <v>-1.369340333511229</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.341475592484425</v>
+        <v>-2.093821040250022</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.056510463614506</v>
+        <v>-1.572178978936019</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.351615239802862</v>
+        <v>4.078817868810926</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.936082705379878</v>
+        <v>3.003206814079751</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.687455822267587</v>
+        <v>3.976988964239989</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.686911332092587</v>
+        <v>5.625030747588168</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.835429761281642</v>
+        <v>4.598646286853656</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.045964851840132</v>
+        <v>3.009983941904862</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.621814986721814</v>
+        <v>3.632535396238924</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.666708618578204</v>
+        <v>2.66881551834057</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.348728776590778</v>
+        <v>2.62904408676392</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.119732343250282</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1514058626784938</v>
+        <v>0.1514058626784943</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.6368893894414894</v>
@@ -760,7 +760,7 @@
         <v>0.3421467904409599</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04402326654937123</v>
+        <v>0.04402326654937103</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.2593824119090594</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6097881017736848</v>
+        <v>-0.5187853893091185</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6457339687719721</v>
+        <v>-0.6191755626378243</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4309864906831263</v>
+        <v>-0.3853048519890013</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3260917143321348</v>
+        <v>-0.4388268632197894</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5235085118961874</v>
+        <v>-0.4816728824347837</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5337445670199022</v>
+        <v>-0.5335156536451386</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2929916970252485</v>
+        <v>-0.2612714964153598</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4394279401888955</v>
+        <v>-0.4090493322952032</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3637831839709504</v>
+        <v>-0.3055903576549218</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9567586728653261</v>
+        <v>1.247276981916736</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9617260135153231</v>
+        <v>0.9377362062047209</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.126086321536311</v>
+        <v>1.361874563439418</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.024276093028634</v>
+        <v>3.097012171914162</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.668592041261021</v>
+        <v>3.068031148504942</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.953034248994718</v>
+        <v>2.135462096365803</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.16348555798191</v>
+        <v>1.277599731230436</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8664825171734986</v>
+        <v>0.9477434154874483</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7794032381359061</v>
+        <v>0.8857463854445831</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.2713903066918044</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.7772343697362037</v>
+        <v>-0.777234369736203</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.43032567181277</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.765730013846716</v>
+        <v>-5.781910988605092</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.837594626561514</v>
+        <v>-2.879993613728687</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.720145821445335</v>
+        <v>-3.563366176029466</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.698383927685628</v>
+        <v>-3.107928412584047</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.501115489638086</v>
+        <v>-2.637164863082022</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.358280995875062</v>
+        <v>-3.113542138863279</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.716335481654019</v>
+        <v>-3.460856734818898</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.817619611925644</v>
+        <v>-1.866640198214137</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.742718969067349</v>
+        <v>-2.643779904231056</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1128444005687305</v>
+        <v>0.04155253709590068</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.637584834069586</v>
+        <v>3.350181062757968</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.702354398638844</v>
+        <v>2.479219157844138</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.659117437901882</v>
+        <v>2.495719043464837</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.144680278276998</v>
+        <v>3.072874197319073</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.649964677534844</v>
+        <v>1.568890503846201</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4050861445860805</v>
+        <v>0.6465738293566354</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.180503386026701</v>
+        <v>2.417833577107763</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.403868895827245</v>
+        <v>1.366370630091438</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.0516870066398896</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1480263555430764</v>
+        <v>-0.1480263555430762</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2399818786124364</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6762860247477219</v>
+        <v>-0.6926184543218705</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3338729027194866</v>
+        <v>-0.3506545821528885</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4428570106374238</v>
+        <v>-0.453873499849481</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4231280533141654</v>
+        <v>-0.4734509548531692</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4064383377605217</v>
+        <v>-0.4053525444425347</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.487853937697936</v>
+        <v>-0.4644007667861581</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5145444801218093</v>
+        <v>-0.4934196663686843</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2618219913286013</v>
+        <v>-0.2619198962438596</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3737841863627357</v>
+        <v>-0.3820160290614938</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.04801383234147</v>
+        <v>0.08946899297130448</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6981636954990408</v>
+        <v>0.6719202224992933</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5554893210205236</v>
+        <v>0.5049692352314076</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7121240815843647</v>
+        <v>0.6226384286073249</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7895681839660899</v>
+        <v>0.7472343710069248</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4355274322902287</v>
+        <v>0.4183025152336396</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07941128637258603</v>
+        <v>0.1354738884446642</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4367501349755263</v>
+        <v>0.4999967110960745</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2884443956886598</v>
+        <v>0.2776900636257784</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.715216767054936</v>
+        <v>-1.351162694409119</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.892137963505646</v>
+        <v>-2.59325350767667</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.639738588447072</v>
+        <v>-1.610128711112315</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.154255903568628</v>
+        <v>-2.00272467418579</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.178213076060879</v>
+        <v>-5.532745996069296</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.670142946736632</v>
+        <v>-1.156979085689723</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.9720255637670091</v>
+        <v>-0.8908127597133136</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.00589036785536</v>
+        <v>-2.898558143381032</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.6262967647262461</v>
+        <v>-0.601332073372856</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.726740772063689</v>
+        <v>6.039239638155641</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.537497228642155</v>
+        <v>4.309962648055442</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.730772067741274</v>
+        <v>4.784009796461543</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.070324928884534</v>
+        <v>5.064258926320718</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7945145599012979</v>
+        <v>0.9485849831207115</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.554014146088164</v>
+        <v>4.99938068161384</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.494810957074048</v>
+        <v>4.255381819134482</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.620624047694747</v>
+        <v>1.768856906787994</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.8648292722192</v>
+        <v>3.879412902228113</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3130254569205272</v>
+        <v>-0.2697204224217886</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3601330011983251</v>
+        <v>-0.4156001775400726</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2871866090080545</v>
+        <v>-0.265313921422764</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3408183568073848</v>
+        <v>-0.3169120129394604</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8020936061472759</v>
+        <v>-0.7903152730219425</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2338423884934145</v>
+        <v>-0.1829326485967848</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.194990205074375</v>
+        <v>-0.1668992318106221</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5031262634111495</v>
+        <v>-0.4966619338493104</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1222732914456194</v>
+        <v>-0.1064054700192044</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.90041909434757</v>
+        <v>2.150758560486607</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.509425885916459</v>
+        <v>1.60673880160545</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.653582789531758</v>
+        <v>1.816227289797927</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.556016433366218</v>
+        <v>1.381885597126217</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3060607507464204</v>
+        <v>0.3949342605692083</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.255676421083884</v>
+        <v>1.468579440819356</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.28209977463903</v>
+        <v>1.170558780246947</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4774366365609682</v>
+        <v>0.4974912354610119</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.071200895938311</v>
+        <v>1.077601686276937</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05576424659784352</v>
+        <v>0.1555898757936291</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3250101240397283</v>
+        <v>-0.4810188823792979</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8557067025851101</v>
+        <v>-0.876300757777339</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.063493237687816</v>
+        <v>-4.017533561748492</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.04153520302700195</v>
+        <v>0.7182039557915189</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.19109521606191</v>
+        <v>-4.275408507337046</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.172903204612707</v>
+        <v>-1.340247830999643</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.103691599746666</v>
+        <v>1.409871899863103</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.914463009874596</v>
+        <v>-1.823278581958781</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.788236965827507</v>
+        <v>6.851115563082794</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.136097657660192</v>
+        <v>5.954042175876665</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.901543372499765</v>
+        <v>4.684568711219502</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.204794513289738</v>
+        <v>2.33661540551934</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.718843412656131</v>
+        <v>8.997316299778657</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.990520638352093</v>
+        <v>1.716079255651946</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.605529878642109</v>
+        <v>3.46512089730937</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.480047494225968</v>
+        <v>6.891630295418283</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.362736080095933</v>
+        <v>2.451734623957397</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01401088421051242</v>
+        <v>-0.00616841017532091</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1099129125166294</v>
+        <v>-0.1062692866937184</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1734305885323277</v>
+        <v>-0.2196885133193306</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5365294075608256</v>
+        <v>-0.5229053086783753</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.01186117625316793</v>
+        <v>0.07395850007908664</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.539017672339503</v>
+        <v>-0.5434258446486013</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2160083267124269</v>
+        <v>-0.2111430122184882</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1723310523991876</v>
+        <v>0.2261735721731647</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3061789583346682</v>
+        <v>-0.2922718599727568</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.491825654960808</v>
+        <v>2.40479539965298</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.226661612726199</v>
+        <v>2.265828419228208</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.765954020192743</v>
+        <v>1.800572369429229</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.491385657946035</v>
+        <v>0.5859155293821443</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.125685603018913</v>
+        <v>2.23645267181131</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5150942571745123</v>
+        <v>0.42228501068983</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9342269770870861</v>
+        <v>0.8752926161423148</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.643628351920788</v>
+        <v>1.70709718144868</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6026217216957834</v>
+        <v>0.6354418027722526</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-0.6158852668615405</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.8515900962069063</v>
+        <v>-0.8515900962069084</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.2220757960778981</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.656910002213951</v>
+        <v>-6.588856082968175</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.997170911346159</v>
+        <v>-6.836558339256309</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-9.283591138828848</v>
+        <v>-8.769953971879501</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.082749319812067</v>
+        <v>-3.411371159536821</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.771433344529554</v>
+        <v>-4.522326110712983</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.832180444114623</v>
+        <v>-4.637489796555736</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.679353081464664</v>
+        <v>-3.492920048496958</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.335535685792359</v>
+        <v>-4.009627615698287</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.84614787917707</v>
+        <v>-5.674717965909473</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.257644828152198</v>
+        <v>3.361886705208918</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.027234852288821</v>
+        <v>2.916721472144797</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.002464341303939</v>
+        <v>-0.9109929050973721</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.015991201886198</v>
+        <v>5.751885380325501</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.4144678647906</v>
+        <v>3.792870148426682</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.008786774229158</v>
+        <v>2.160483114004583</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.911740563899027</v>
+        <v>2.898687689844696</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.894555956898651</v>
+        <v>2.02744915626183</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.4395370761325569</v>
+        <v>-0.3717595228070644</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.1234452560624159</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1706888655125313</v>
+        <v>-0.1706888655125317</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.03460232787808711</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6502397515180355</v>
+        <v>-0.6497174511162047</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6551222508458687</v>
+        <v>-0.6421968685128634</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8119899884623827</v>
+        <v>-0.8009496177462883</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4617462952754393</v>
+        <v>-0.4957787640532799</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6734705277016737</v>
+        <v>-0.6606537002121154</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6056168602258447</v>
+        <v>-0.6007488636558601</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.454431624403494</v>
+        <v>-0.4267887050372189</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5380095515249421</v>
+        <v>-0.5129695870354617</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6661411199569565</v>
+        <v>-0.6464757360564427</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6986883419713055</v>
+        <v>0.6203464707333115</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.52438080922317</v>
+        <v>0.58947685595914</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1459255175348522</v>
+        <v>-0.1052842157706451</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.003420323848466</v>
+        <v>2.157062331721369</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.267457248877401</v>
+        <v>1.451420774729588</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8121718904043423</v>
+        <v>0.8386910022378447</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6248970266322293</v>
+        <v>0.6285405177757064</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3897412838979266</v>
+        <v>0.4333380861919089</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.0796789269142268</v>
+        <v>-0.05176416125264862</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-1.568628551067623</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-0.3821396329537652</v>
+        <v>-0.3821396329537645</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-0.1733347472241908</v>
@@ -1725,7 +1725,7 @@
         <v>0.6676637355292379</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-1.432426706107543</v>
+        <v>-1.432426706107547</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.0639243733165637</v>
@@ -1734,7 +1734,7 @@
         <v>-0.4283499645812046</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-0.9069342901482986</v>
+        <v>-0.9069342901482993</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.039813338732836</v>
+        <v>-3.969326117954393</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.310635199742863</v>
+        <v>-5.491676948014965</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.051522527485217</v>
+        <v>-4.300153690299958</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.582597620414484</v>
+        <v>-4.423388437917505</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.639305153232189</v>
+        <v>-3.49894325363954</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-5.244630777851099</v>
+        <v>-5.716133700658772</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.897811790711743</v>
+        <v>-2.857859319859264</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.628224022009497</v>
+        <v>-3.435233491491051</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-3.686806637697341</v>
+        <v>-3.387028437703634</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.076446251718504</v>
+        <v>4.370276849775305</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.399409091136803</v>
+        <v>2.78712840350928</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.528111924430637</v>
+        <v>2.70890840071631</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.278164634975107</v>
+        <v>4.40924470224824</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.313449636990068</v>
+        <v>5.862623087778122</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.043331641974186</v>
+        <v>1.904796191173985</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.087878805736288</v>
+        <v>3.09365823307439</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.584004108836417</v>
+        <v>2.638109249476817</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.450582361631964</v>
+        <v>1.58998025194275</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.2445428164743573</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.05957401582764017</v>
+        <v>-0.05957401582764007</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.02509763113082495</v>
@@ -1830,7 +1830,7 @@
         <v>0.09667293155058106</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.2074051375592418</v>
+        <v>-0.2074051375592423</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.009592835129610275</v>
@@ -1839,7 +1839,7 @@
         <v>-0.06428049857685775</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.1360994354328453</v>
+        <v>-0.1360994354328454</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4995702909186096</v>
+        <v>-0.4922265888696538</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.6276241097516414</v>
+        <v>-0.6605467639781731</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4783999476712351</v>
+        <v>-0.4910689091897061</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.5232993037303849</v>
+        <v>-0.5020731504983059</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4054434071114838</v>
+        <v>-0.4125943246526368</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5306982048379965</v>
+        <v>-0.5775755747533098</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3613799484700472</v>
+        <v>-0.3500678738231136</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4422715635855134</v>
+        <v>-0.4247705389619764</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4218733377746619</v>
+        <v>-0.4034412207764043</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.9026524813471533</v>
+        <v>1.014202525958998</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.5975701001256103</v>
+        <v>0.6207598362090304</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.5804956440383821</v>
+        <v>0.6739859701202221</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.9309326296297656</v>
+        <v>0.9109529459489023</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.185745586014706</v>
+        <v>1.231617546607387</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4688163988129903</v>
+        <v>0.4216577175820712</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6103106353813107</v>
+        <v>0.5939249695824544</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4764264820383449</v>
+        <v>0.4745124130087593</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.3145865714009261</v>
+        <v>0.3185238990428839</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>1.109169451547969</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.550408859762616</v>
+        <v>1.550408859762618</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-1.226498730116702</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.2968379034609506</v>
+        <v>-0.23289168656074</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.203866991526609</v>
+        <v>-1.203180015935529</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.7874340240910009</v>
+        <v>-0.963195364263735</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.298431221478605</v>
+        <v>-3.527106932724025</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.463263038188853</v>
+        <v>-3.406742300877172</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.8642766328129561</v>
+        <v>-1.058641902444082</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.113942786426553</v>
+        <v>-1.327934418833148</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.717308812343031</v>
+        <v>-1.706177791014861</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.182065371580609</v>
+        <v>-0.3421096627063288</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.785437618148916</v>
+        <v>4.703026678705601</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.621258972017938</v>
+        <v>3.458111434878278</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.015273311882432</v>
+        <v>3.96874586636493</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.025375916956599</v>
+        <v>0.803761709791953</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.213099749766761</v>
+        <v>1.023793457495803</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.427877171067954</v>
+        <v>3.364160954064124</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.352879491541858</v>
+        <v>2.052752769613836</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.533860621127057</v>
+        <v>1.663439038502893</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.360982569051316</v>
+        <v>2.944828789404743</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.2592872876078106</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.3624345291604721</v>
+        <v>0.3624345291604725</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.2554047847251354</v>
@@ -2044,7 +2044,7 @@
         <v>-0.2304485994523919</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2586340352310336</v>
+        <v>0.2586340352310337</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.1013255486746773</v>
@@ -2053,7 +2053,7 @@
         <v>-0.005586560419371596</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.3069750660306506</v>
+        <v>0.3069750660306507</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.07275379225989889</v>
+        <v>-0.04986868535248411</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2348728210361835</v>
+        <v>-0.231728013428782</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.158320806118599</v>
+        <v>-0.1729797581324047</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.5475298049848001</v>
+        <v>-0.5810132407013161</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.571677672134824</v>
+        <v>-0.5686167788384667</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1429096292174057</v>
+        <v>-0.1817067329715403</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2106103191344069</v>
+        <v>-0.2495809770673273</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3121677687560764</v>
+        <v>-0.3272979220258496</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.04271428681687673</v>
+        <v>-0.06534951142478365</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.447914049044658</v>
+        <v>1.426751008518911</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.11588742365773</v>
+        <v>1.067702713257797</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.31473045413568</v>
+        <v>1.271282862386086</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2715770913964181</v>
+        <v>0.210348607873369</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.381690272965871</v>
+        <v>0.2884642046733542</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9758763173937857</v>
+        <v>0.9707742915204168</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6105760028131132</v>
+        <v>0.5411603212374342</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4134287732201586</v>
+        <v>0.4500576127458411</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.916658480930692</v>
+        <v>0.8169583696394754</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-0.4920434315013308</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.1377211228199914</v>
+        <v>0.137721122819992</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-2.388463782225084</v>
@@ -2162,7 +2162,7 @@
         <v>0.1590887480585543</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.1134643310280729</v>
+        <v>0.1134643310280709</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.889291543115466</v>
+        <v>-4.761902924087623</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.671367671800367</v>
+        <v>-1.493838395381982</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.067754934035362</v>
+        <v>-2.267631240985847</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-4.182714981914186</v>
+        <v>-4.122950535786564</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.69212698225058</v>
+        <v>-2.871630258731501</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-2.163041603731095</v>
+        <v>-2.043974409036287</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-4.023159794970458</v>
+        <v>-3.932754195188257</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.498834778740536</v>
+        <v>-1.55813071792751</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.582763328390945</v>
+        <v>-1.477803461034495</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.598081412093183</v>
+        <v>-0.680575553795828</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.131287736067392</v>
+        <v>3.30270957562914</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.367105488592763</v>
+        <v>2.113132080268369</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.1749436974656536</v>
+        <v>0.03927145066192058</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.003055432315394</v>
+        <v>1.814333930898225</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.250071407352964</v>
+        <v>2.098498964161565</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.7986579498174067</v>
+        <v>-0.7168783725337633</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.890187342516872</v>
+        <v>1.970410896445815</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.575519900751209</v>
+        <v>1.624259803196114</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.08698671434909133</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02434725718017498</v>
+        <v>0.0243472571801751</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.417848989739233</v>
@@ -2267,7 +2267,7 @@
         <v>0.027831727300976</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.01984997907205037</v>
+        <v>0.01984997907205001</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6934854715013504</v>
+        <v>-0.6804449727481765</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2516418568797957</v>
+        <v>-0.2236401055926287</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2877538920898114</v>
+        <v>-0.3165483337453245</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.6117564639212353</v>
+        <v>-0.6130658376710731</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3986724432393511</v>
+        <v>-0.4248797619767297</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.300610258342792</v>
+        <v>-0.3066529320512227</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.6065427885657525</v>
+        <v>-0.5981141440625938</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.231533906603699</v>
+        <v>-0.2378227200791577</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.2342093915915993</v>
+        <v>-0.2183278685062196</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.1104782377979753</v>
+        <v>-0.1428958825293817</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.6643200538626637</v>
+        <v>0.7137827513781135</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.5057146653690534</v>
+        <v>0.4554257164745034</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.04792838898119609</v>
+        <v>0.009993049349526963</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4213882095215504</v>
+        <v>0.4053092668199716</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5204827853145576</v>
+        <v>0.4986061015680402</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.1566372893403189</v>
+        <v>-0.1584539237943014</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.3929827450169778</v>
+        <v>0.3900867262659257</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.3098918926689956</v>
+        <v>0.3337162112565946</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>0.09266224618510385</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>0.03277476942862151</v>
+        <v>0.03277476942862012</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-0.3176218735451708</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.392563775391823</v>
+        <v>-1.207643121913433</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.6154175290791137</v>
+        <v>-0.5770347303584893</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.7179683448207328</v>
+        <v>-0.7392933885922522</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-1.588700555013578</v>
+        <v>-1.617874695507479</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.9895293564412244</v>
+        <v>-0.9301521135553078</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.9663324453885668</v>
+        <v>-0.9312751447744954</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-1.110170976062123</v>
+        <v>-1.055935991039349</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.5559076845750353</v>
+        <v>-0.4892704371257997</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.5285260931392666</v>
+        <v>-0.4858870704343468</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.8271720194348754</v>
+        <v>0.9888608337098885</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.670386742838225</v>
+        <v>1.654227883528221</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.460739257578498</v>
+        <v>1.360730788118687</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.6119220730968632</v>
+        <v>0.5513262911340616</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.222905371853063</v>
+        <v>1.32840050725984</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.001206874386207</v>
+        <v>0.9599985815009004</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.3836969273271676</v>
+        <v>0.4833995921712793</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.081731440097667</v>
+        <v>1.103973834826328</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>0.8458107499050339</v>
+        <v>0.9117197110946624</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.01749844894573158</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.006189226499098758</v>
+        <v>0.006189226499098495</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.05933137254435888</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.2304381546649446</v>
+        <v>-0.2044536341421034</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1021152608584381</v>
+        <v>-0.09926618649487573</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.1161657248406775</v>
+        <v>-0.1230889506675707</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.2669616063002122</v>
+        <v>-0.2683549890597887</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.1699031431779092</v>
+        <v>-0.1602040450480403</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.161718864539774</v>
+        <v>-0.1570577195146432</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.1922395735094805</v>
+        <v>-0.1832674724075503</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.09389581480847173</v>
+        <v>-0.08607034382486393</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.09141917129045735</v>
+        <v>-0.08385865862744644</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.164530058167258</v>
+        <v>0.2029900629751613</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.3349786162639286</v>
+        <v>0.3405345086463984</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.3124988064840179</v>
+        <v>0.2754564814115215</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1384938182679858</v>
+        <v>0.1182383752481789</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.2613935755423916</v>
+        <v>0.2831423904085407</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.2205129001309788</v>
+        <v>0.2010716709732965</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.07698189444527441</v>
+        <v>0.09999191335480116</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.2181466610107042</v>
+        <v>0.2154988440888026</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.1686655503470385</v>
+        <v>0.1855278002455515</v>
       </c>
     </row>
     <row r="58">
